--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/20/seed5/result_data_KNN.xlsx
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.812</v>
+        <v>-21.705</v>
       </c>
       <c r="B11" t="n">
         <v>3.8</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.542</v>
+        <v>-21.657</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.95</v>
+        <v>-22.044</v>
       </c>
       <c r="B15" t="n">
         <v>5.32</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.82</v>
+        <v>-21.427</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.434</v>
+        <v>-21.777</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-21.78</v>
+        <v>-21.838</v>
       </c>
       <c r="B31" t="n">
         <v>4.47</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.904</v>
+        <v>-21.664</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.872</v>
+        <v>-20.339</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.558</v>
+        <v>-19.741</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-22.022</v>
+        <v>-21.781</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.68</v>
+        <v>-21.862</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.178</v>
+        <v>-22.135</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.11</v>
+        <v>-22.086</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.606</v>
+        <v>-21.495</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.606</v>
+        <v>-21.721</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.312</v>
+        <v>-21.445</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.014</v>
+        <v>-19.981</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22</v>
+        <v>-21.975</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-22.496</v>
+        <v>-22.093</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.47</v>
+        <v>-21.522</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-22.034</v>
+        <v>-21.259</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.398</v>
+        <v>-20.54</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
